--- a/Code/Results/Cases/Case_3_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_137/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.171122763002245</v>
+        <v>2.709022005468171</v>
       </c>
       <c r="C2">
-        <v>0.822439217282863</v>
+        <v>0.2366069544716822</v>
       </c>
       <c r="D2">
-        <v>0.06062697868117795</v>
+        <v>0.09898049955918964</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.734820760383201</v>
+        <v>2.273988311549061</v>
       </c>
       <c r="G2">
-        <v>0.0007814971724661168</v>
+        <v>0.002510418103127687</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.410193460351266</v>
+        <v>0.3047683061611224</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.124957263349629</v>
+        <v>1.871501367930094</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.470563177250597</v>
+        <v>2.54626631303438</v>
       </c>
       <c r="C3">
-        <v>0.7084677320407877</v>
+        <v>0.205676889423188</v>
       </c>
       <c r="D3">
-        <v>0.05968143107478596</v>
+        <v>0.09922807900584019</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.438490144804589</v>
+        <v>2.214184979228932</v>
       </c>
       <c r="G3">
-        <v>0.0007921022001707763</v>
+        <v>0.002516829980572283</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3593807355665177</v>
+        <v>0.2940180113051838</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.150417926661135</v>
+        <v>1.882505589821776</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.050059074219803</v>
+        <v>2.448092062838327</v>
       </c>
       <c r="C4">
-        <v>0.6397297777826623</v>
+        <v>0.1866842450516515</v>
       </c>
       <c r="D4">
-        <v>0.05928271409117514</v>
+        <v>0.09942768211517716</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.263577183744658</v>
+        <v>2.178965009205157</v>
       </c>
       <c r="G4">
-        <v>0.0007987585778764798</v>
+        <v>0.00252097042540529</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3290221284413377</v>
+        <v>0.2876154528835855</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.168281871160801</v>
+        <v>1.889908560650603</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.88078528371517</v>
+        <v>2.408523108077134</v>
       </c>
       <c r="C5">
-        <v>0.6119756537709975</v>
+        <v>0.178943351715418</v>
       </c>
       <c r="D5">
-        <v>0.05916158585748121</v>
+        <v>0.0995209097088221</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.193859488817736</v>
+        <v>2.164986340179041</v>
       </c>
       <c r="G5">
-        <v>0.0008015103792426071</v>
+        <v>0.002522709060067019</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.316835649139378</v>
+        <v>0.2850558453345968</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.176081453833845</v>
+        <v>1.893086991438352</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.852794154427386</v>
+        <v>2.401979033839723</v>
       </c>
       <c r="C6">
-        <v>0.6073811374326397</v>
+        <v>0.1776578824178614</v>
       </c>
       <c r="D6">
-        <v>0.05914385141518608</v>
+        <v>0.09953710578390229</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.182371493330635</v>
+        <v>2.162687670710355</v>
       </c>
       <c r="G6">
-        <v>0.0008019697638585417</v>
+        <v>0.002523000867512767</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3148225365564485</v>
+        <v>0.2846338034355966</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.177406846215931</v>
+        <v>1.893624506133087</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.047768170179324</v>
+        <v>2.44755665487645</v>
       </c>
       <c r="C7">
-        <v>0.6393545031510541</v>
+        <v>0.1865798548057853</v>
       </c>
       <c r="D7">
-        <v>0.05928091850946515</v>
+        <v>0.09942889138532962</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.262630887032429</v>
+        <v>2.178774979003833</v>
       </c>
       <c r="G7">
-        <v>0.0007987955269561008</v>
+        <v>0.002520993665149098</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3288570617524158</v>
+        <v>0.2875807331980695</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.168385005325661</v>
+        <v>1.889950772656704</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.927352673718019</v>
+        <v>2.652536210656024</v>
       </c>
       <c r="C8">
-        <v>0.782849309164078</v>
+        <v>0.2259420356594717</v>
       </c>
       <c r="D8">
-        <v>0.06026041549263539</v>
+        <v>0.09905594016865393</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.631053414041048</v>
+        <v>2.253054869660133</v>
       </c>
       <c r="G8">
-        <v>0.0007851255302370644</v>
+        <v>0.002512586792099778</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3924819521806455</v>
+        <v>0.3010202626010283</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.133246912755084</v>
+        <v>1.875160953849857</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.746199703533136</v>
+        <v>3.068673561465744</v>
       </c>
       <c r="C9">
-        <v>1.076928249526418</v>
+        <v>0.3031627234321377</v>
       </c>
       <c r="D9">
-        <v>0.06385164231856066</v>
+        <v>0.09870582328736788</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.420058017910492</v>
+        <v>2.410776180849922</v>
       </c>
       <c r="G9">
-        <v>0.0007593221972080787</v>
+        <v>0.002497707084130765</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5252782331847357</v>
+        <v>0.3289649385731366</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.084155101867012</v>
+        <v>1.851325762473294</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.168155947808032</v>
+        <v>3.383393931757325</v>
       </c>
       <c r="C10">
-        <v>1.305355979670594</v>
+        <v>0.3599814416625122</v>
       </c>
       <c r="D10">
-        <v>0.06788286483969586</v>
+        <v>0.09868619558327651</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.057660518617439</v>
+        <v>2.534244209090218</v>
       </c>
       <c r="G10">
-        <v>0.0007407410120631296</v>
+        <v>0.002487741834616458</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6299324418341286</v>
+        <v>0.3504920499079702</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.063593661799814</v>
+        <v>1.837018938087724</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.841357722600492</v>
+        <v>3.528597221417954</v>
       </c>
       <c r="C11">
-        <v>1.413231772923723</v>
+        <v>0.3858627990746868</v>
       </c>
       <c r="D11">
-        <v>0.07012356622598759</v>
+        <v>0.09873001025508188</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.365031820044578</v>
+        <v>2.592114496015711</v>
       </c>
       <c r="G11">
-        <v>0.00073230606131545</v>
+        <v>0.002483415700881023</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6796759360579756</v>
+        <v>0.3605077037169764</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.058546180158459</v>
+        <v>1.831218303133895</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.100853043465349</v>
+        <v>3.583880392190963</v>
       </c>
       <c r="C12">
-        <v>1.454781426528484</v>
+        <v>0.3956694197868273</v>
       </c>
       <c r="D12">
-        <v>0.07104140670413273</v>
+        <v>0.09875428119533325</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.484397354979649</v>
+        <v>2.614277641061335</v>
       </c>
       <c r="G12">
-        <v>0.0007291080882910512</v>
+        <v>0.002481807085738197</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6988796141727107</v>
+        <v>0.3643328750100494</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.057350313671108</v>
+        <v>1.829124521118928</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.044748960058087</v>
+        <v>3.571960842633075</v>
       </c>
       <c r="C13">
-        <v>1.445799531623607</v>
+        <v>0.3935571096544663</v>
       </c>
       <c r="D13">
-        <v>0.07084045405601103</v>
+        <v>0.0987487109462748</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.458549147512628</v>
+        <v>2.6094932777427</v>
       </c>
       <c r="G13">
-        <v>0.0007297971140265425</v>
+        <v>0.0024821522164525</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6947263747652812</v>
+        <v>0.3635076055613951</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.057574316641521</v>
+        <v>1.829570866088019</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.862610030676365</v>
+        <v>3.533139402157872</v>
       </c>
       <c r="C14">
-        <v>1.416635241256358</v>
+        <v>0.3866694714364485</v>
       </c>
       <c r="D14">
-        <v>0.07019761826417437</v>
+        <v>0.09873185258648931</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.374789498120066</v>
+        <v>2.593932860026371</v>
       </c>
       <c r="G14">
-        <v>0.0007320430798276477</v>
+        <v>0.002483282766838258</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6812481009797295</v>
+        <v>0.360821749902783</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.058432840492387</v>
+        <v>1.83104398030612</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.751665153872523</v>
+        <v>3.509399090796364</v>
       </c>
       <c r="C15">
-        <v>1.398866615567613</v>
+        <v>0.3824513937924507</v>
       </c>
       <c r="D15">
-        <v>0.06981324991591009</v>
+        <v>0.09872252926743386</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.323886881700133</v>
+        <v>2.584434188411308</v>
       </c>
       <c r="G15">
-        <v>0.0007334180895307954</v>
+        <v>0.002483979110771788</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6730420028485895</v>
+        <v>0.3591808255067548</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.059055051046002</v>
+        <v>1.831959723024099</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.12475436195291</v>
+        <v>3.373945950204643</v>
       </c>
       <c r="C16">
-        <v>1.298396330585774</v>
+        <v>0.3582908071585962</v>
       </c>
       <c r="D16">
-        <v>0.06774549587706957</v>
+        <v>0.09868440159032588</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.037960755478963</v>
+        <v>2.530496870041446</v>
       </c>
       <c r="G16">
-        <v>0.0007412920914933192</v>
+        <v>0.002488028709593543</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6267294430483759</v>
+        <v>0.3498420230534691</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.064018017280034</v>
+        <v>1.837412350617527</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.747426044600161</v>
+        <v>3.291374777988494</v>
       </c>
       <c r="C17">
-        <v>1.237861067985875</v>
+        <v>0.3434785367496147</v>
       </c>
       <c r="D17">
-        <v>0.06658827941665635</v>
+        <v>0.09867458727446632</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.867306632972117</v>
+        <v>2.497847263332972</v>
       </c>
       <c r="G17">
-        <v>0.0007461228687779698</v>
+        <v>0.002490565921539195</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5989046146143977</v>
+        <v>0.3441703417921502</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.068228770859278</v>
+        <v>1.840939331435152</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.532822726206462</v>
+        <v>3.24407329150705</v>
       </c>
       <c r="C18">
-        <v>1.20340678962998</v>
+        <v>0.3349620729011917</v>
       </c>
       <c r="D18">
-        <v>0.06596021930786122</v>
+        <v>0.09867390102373008</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.770748196495276</v>
+        <v>2.479228231250801</v>
       </c>
       <c r="G18">
-        <v>0.0007489035133818257</v>
+        <v>0.002492044763664189</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5830974153162884</v>
+        <v>0.3409290923815718</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.071049309631178</v>
+        <v>1.843034498180899</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.460556800925133</v>
+        <v>3.228090516521377</v>
       </c>
       <c r="C19">
-        <v>1.19180010658323</v>
+        <v>0.3320790578819128</v>
       </c>
       <c r="D19">
-        <v>0.0657537194797726</v>
+        <v>0.09867451746759315</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.73831623303326</v>
+        <v>2.472951537053405</v>
       </c>
       <c r="G19">
-        <v>0.0007498455311192205</v>
+        <v>0.002492548829914687</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5777775294208567</v>
+        <v>0.3398352470522639</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.07207009937278</v>
+        <v>1.843755282645404</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.787336995489795</v>
+        <v>3.300144787842555</v>
       </c>
       <c r="C20">
-        <v>1.244266612912554</v>
+        <v>0.3450549938269205</v>
       </c>
       <c r="D20">
-        <v>0.06670750994298658</v>
+        <v>0.09867511813865804</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.885304533602977</v>
+        <v>2.5013062660515</v>
       </c>
       <c r="G20">
-        <v>0.0007456084487788829</v>
+        <v>0.002490293813602406</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6018458354693195</v>
+        <v>0.344771930566921</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.067738629795628</v>
+        <v>1.840556984128014</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.915977746853855</v>
+        <v>3.544534075465663</v>
       </c>
       <c r="C21">
-        <v>1.425181364182151</v>
+        <v>0.3886923693060567</v>
       </c>
       <c r="D21">
-        <v>0.07038445602221088</v>
+        <v>0.09873659511757182</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.399306856338342</v>
+        <v>2.598496544914468</v>
       </c>
       <c r="G21">
-        <v>0.0007313835460240892</v>
+        <v>0.002482949894931696</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6851965102972883</v>
+        <v>0.3616097665067173</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.058160396431163</v>
+        <v>1.830608492830208</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.680708315115226</v>
+        <v>3.705995095545177</v>
       </c>
       <c r="C22">
-        <v>1.547575302747305</v>
+        <v>0.417246851002119</v>
       </c>
       <c r="D22">
-        <v>0.07319837168519427</v>
+        <v>0.09882157984226581</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.752842290016417</v>
+        <v>2.663468777072438</v>
       </c>
       <c r="G22">
-        <v>0.000722060520555529</v>
+        <v>0.002478322654397915</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7418453956787374</v>
+        <v>0.3728036691469185</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.056129380064846</v>
+        <v>1.824706225832998</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.269781487859518</v>
+        <v>3.619659506241646</v>
       </c>
       <c r="C23">
-        <v>1.481821640397357</v>
+        <v>0.4020032585596596</v>
       </c>
       <c r="D23">
-        <v>0.07165477751585314</v>
+        <v>0.09877209035019519</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.562360547658272</v>
+        <v>2.628657645231954</v>
       </c>
       <c r="G23">
-        <v>0.000727041218762266</v>
+        <v>0.002480776582750729</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7113892279440819</v>
+        <v>0.3668118032429106</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.056789734558777</v>
+        <v>1.827801161604043</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.769286061089076</v>
+        <v>3.296179337947308</v>
       </c>
       <c r="C24">
-        <v>1.241369590759916</v>
+        <v>0.3443422798131337</v>
       </c>
       <c r="D24">
-        <v>0.06665349062023296</v>
+        <v>0.09867486270515258</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.877162880868156</v>
+        <v>2.499741978822613</v>
       </c>
       <c r="G24">
-        <v>0.0007458410070907494</v>
+        <v>0.002490416770879537</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6005155231191424</v>
+        <v>0.3444998916505995</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.067958984591542</v>
+        <v>1.84072963330587</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.241414873474298</v>
+        <v>2.954544905182161</v>
       </c>
       <c r="C25">
-        <v>0.995577981403585</v>
+        <v>0.2822623994508149</v>
       </c>
       <c r="D25">
-        <v>0.06266629237565979</v>
+        <v>0.09875919428661462</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.197850632259588</v>
+        <v>2.366792957001877</v>
       </c>
       <c r="G25">
-        <v>0.0007662175234759317</v>
+        <v>0.002501561761054494</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.488286235741441</v>
+        <v>0.3212322073820815</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.094992003085963</v>
+        <v>1.857214997081826</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_137/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.709022005468171</v>
+        <v>5.171122763002302</v>
       </c>
       <c r="C2">
-        <v>0.2366069544716822</v>
+        <v>0.8224392172828914</v>
       </c>
       <c r="D2">
-        <v>0.09898049955918964</v>
+        <v>0.06062697868130584</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.273988311549061</v>
+        <v>2.734820760383201</v>
       </c>
       <c r="G2">
-        <v>0.002510418103127687</v>
+        <v>0.0007814971725242296</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3047683061611224</v>
+        <v>0.4101934603512234</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.871501367930094</v>
+        <v>1.124957263349586</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.54626631303438</v>
+        <v>4.47056317725071</v>
       </c>
       <c r="C3">
-        <v>0.205676889423188</v>
+        <v>0.7084677320410151</v>
       </c>
       <c r="D3">
-        <v>0.09922807900584019</v>
+        <v>0.05968143107478596</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.214184979228932</v>
+        <v>2.438490144804589</v>
       </c>
       <c r="G3">
-        <v>0.002516829980572283</v>
+        <v>0.0007921022001112719</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2940180113051838</v>
+        <v>0.3593807355665177</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.882505589821776</v>
+        <v>1.150417926661078</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.448092062838327</v>
+        <v>4.050059074219803</v>
       </c>
       <c r="C4">
-        <v>0.1866842450516515</v>
+        <v>0.6397297777819233</v>
       </c>
       <c r="D4">
-        <v>0.09942768211517716</v>
+        <v>0.05928271409116803</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.178965009205157</v>
+        <v>2.263577183744658</v>
       </c>
       <c r="G4">
-        <v>0.00252097042540529</v>
+        <v>0.0007987585778205591</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2876154528835855</v>
+        <v>0.329022128441224</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.889908560650603</v>
+        <v>1.168281871160801</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.408523108077134</v>
+        <v>3.88078528371534</v>
       </c>
       <c r="C5">
-        <v>0.178943351715418</v>
+        <v>0.6119756537715375</v>
       </c>
       <c r="D5">
-        <v>0.0995209097088221</v>
+        <v>0.05916158585738174</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.164986340179041</v>
+        <v>2.193859488817736</v>
       </c>
       <c r="G5">
-        <v>0.002522709060067019</v>
+        <v>0.0008015103792477296</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2850558453345968</v>
+        <v>0.3168356491393496</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.893086991438352</v>
+        <v>1.17608145383393</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.401979033839723</v>
+        <v>3.852794154427158</v>
       </c>
       <c r="C6">
-        <v>0.1776578824178614</v>
+        <v>0.6073811374325828</v>
       </c>
       <c r="D6">
-        <v>0.09953710578390229</v>
+        <v>0.05914385141530687</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.162687670710355</v>
+        <v>2.182371493330635</v>
       </c>
       <c r="G6">
-        <v>0.002523000867512767</v>
+        <v>0.0008019697639166249</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2846338034355966</v>
+        <v>0.3148225365563349</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.893624506133087</v>
+        <v>1.177406846215902</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.44755665487645</v>
+        <v>4.047768170179381</v>
       </c>
       <c r="C7">
-        <v>0.1865798548057853</v>
+        <v>0.6393545031505994</v>
       </c>
       <c r="D7">
-        <v>0.09942889138532962</v>
+        <v>0.05928091850947936</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.178774979003833</v>
+        <v>2.262630887032415</v>
       </c>
       <c r="G7">
-        <v>0.002520993665149098</v>
+        <v>0.0007987955269598055</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2875807331980695</v>
+        <v>0.3288570617524584</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.889950772656704</v>
+        <v>1.168385005325661</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.652536210656024</v>
+        <v>4.927352673717962</v>
       </c>
       <c r="C8">
-        <v>0.2259420356594717</v>
+        <v>0.7828493091641064</v>
       </c>
       <c r="D8">
-        <v>0.09905594016865393</v>
+        <v>0.0602604154927775</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.253054869660133</v>
+        <v>2.63105341404102</v>
       </c>
       <c r="G8">
-        <v>0.002512586792099778</v>
+        <v>0.000785125530120694</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3010202626010283</v>
+        <v>0.3924819521806313</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.875160953849857</v>
+        <v>1.133246912755098</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.068673561465744</v>
+        <v>6.746199703533023</v>
       </c>
       <c r="C9">
-        <v>0.3031627234321377</v>
+        <v>1.076928249526475</v>
       </c>
       <c r="D9">
-        <v>0.09870582328736788</v>
+        <v>0.06385164231856066</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.410776180849922</v>
+        <v>3.420058017910463</v>
       </c>
       <c r="G9">
-        <v>0.002497707084130765</v>
+        <v>0.0007593221972093013</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3289649385731366</v>
+        <v>0.525278233184693</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.851325762473294</v>
+        <v>1.084155101867026</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.383393931757325</v>
+        <v>8.168155947808145</v>
       </c>
       <c r="C10">
-        <v>0.3599814416625122</v>
+        <v>1.305355979670537</v>
       </c>
       <c r="D10">
-        <v>0.09868619558327651</v>
+        <v>0.06788286484017902</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.534244209090218</v>
+        <v>4.057660518617467</v>
       </c>
       <c r="G10">
-        <v>0.002487741834616458</v>
+        <v>0.0007407410121316998</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3504920499079702</v>
+        <v>0.6299324418340859</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.837018938087724</v>
+        <v>1.063593661799757</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.528597221417954</v>
+        <v>8.841357722600378</v>
       </c>
       <c r="C11">
-        <v>0.3858627990746868</v>
+        <v>1.413231772923666</v>
       </c>
       <c r="D11">
-        <v>0.09873001025508188</v>
+        <v>0.07012356622607996</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.592114496015711</v>
+        <v>4.365031820044521</v>
       </c>
       <c r="G11">
-        <v>0.002483415700881023</v>
+        <v>0.0007323060612987098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3605077037169764</v>
+        <v>0.679675936058004</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.831218303133895</v>
+        <v>1.058546180158487</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.583880392190963</v>
+        <v>9.100853043465577</v>
       </c>
       <c r="C12">
-        <v>0.3956694197868273</v>
+        <v>1.454781426528768</v>
       </c>
       <c r="D12">
-        <v>0.09875428119533325</v>
+        <v>0.07104140670420378</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.614277641061335</v>
+        <v>4.484397354979677</v>
       </c>
       <c r="G12">
-        <v>0.002481807085738197</v>
+        <v>0.0007291080883682846</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3643328750100494</v>
+        <v>0.6988796141726397</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.829124521118928</v>
+        <v>1.057350313671165</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.571960842633075</v>
+        <v>9.0447489600582</v>
       </c>
       <c r="C13">
-        <v>0.3935571096544663</v>
+        <v>1.445799531623322</v>
       </c>
       <c r="D13">
-        <v>0.0987487109462748</v>
+        <v>0.07084045405579786</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.6094932777427</v>
+        <v>4.458549147512656</v>
       </c>
       <c r="G13">
-        <v>0.0024821522164525</v>
+        <v>0.0007297971139170138</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3635076055613951</v>
+        <v>0.6947263747654802</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.829570866088019</v>
+        <v>1.057574316641535</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.533139402157872</v>
+        <v>8.862610030676478</v>
       </c>
       <c r="C14">
-        <v>0.3866694714364485</v>
+        <v>1.416635241256984</v>
       </c>
       <c r="D14">
-        <v>0.09873185258648931</v>
+        <v>0.07019761826416016</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.593932860026371</v>
+        <v>4.374789498120094</v>
       </c>
       <c r="G14">
-        <v>0.002483282766838258</v>
+        <v>0.0007320430798453772</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.360821749902783</v>
+        <v>0.6812481009795732</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.83104398030612</v>
+        <v>1.058432840492344</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.509399090796364</v>
+        <v>8.751665153872409</v>
       </c>
       <c r="C15">
-        <v>0.3824513937924507</v>
+        <v>1.398866615567215</v>
       </c>
       <c r="D15">
-        <v>0.09872252926743386</v>
+        <v>0.06981324991576798</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.584434188411308</v>
+        <v>4.323886881700105</v>
       </c>
       <c r="G15">
-        <v>0.002483979110771788</v>
+        <v>0.0007334180894758137</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3591808255067548</v>
+        <v>0.6730420028485042</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.831959723024099</v>
+        <v>1.059055051046002</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.373945950204643</v>
+        <v>8.124754361952967</v>
       </c>
       <c r="C16">
-        <v>0.3582908071585962</v>
+        <v>1.298396330585319</v>
       </c>
       <c r="D16">
-        <v>0.09868440159032588</v>
+        <v>0.0677454958768422</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.530496870041446</v>
+        <v>4.037960755478963</v>
       </c>
       <c r="G16">
-        <v>0.002488028709593543</v>
+        <v>0.0007412920916193502</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3498420230534691</v>
+        <v>0.6267294430484043</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.837412350617527</v>
+        <v>1.064018017280063</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.291374777988494</v>
+        <v>7.747426044600047</v>
       </c>
       <c r="C17">
-        <v>0.3434785367496147</v>
+        <v>1.237861067985818</v>
       </c>
       <c r="D17">
-        <v>0.09867458727446632</v>
+        <v>0.06658827941678425</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.497847263332972</v>
+        <v>3.867306632972145</v>
       </c>
       <c r="G17">
-        <v>0.002490565921539195</v>
+        <v>0.0007461228687196314</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3441703417921502</v>
+        <v>0.5989046146141845</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.840939331435152</v>
+        <v>1.068228770859264</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.24407329150705</v>
+        <v>7.532822726206518</v>
       </c>
       <c r="C18">
-        <v>0.3349620729011917</v>
+        <v>1.203406789630037</v>
       </c>
       <c r="D18">
-        <v>0.09867390102373008</v>
+        <v>0.06596021930772622</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.479228231250801</v>
+        <v>3.770748196495276</v>
       </c>
       <c r="G18">
-        <v>0.002492044763664189</v>
+        <v>0.0007489035133118284</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3409290923815718</v>
+        <v>0.5830974153162316</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.843034498180899</v>
+        <v>1.071049309631192</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.228090516521377</v>
+        <v>7.46055680092536</v>
       </c>
       <c r="C19">
-        <v>0.3320790578819128</v>
+        <v>1.191800106583003</v>
       </c>
       <c r="D19">
-        <v>0.09867451746759315</v>
+        <v>0.06575371947973707</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.472951537053405</v>
+        <v>3.738316233033288</v>
       </c>
       <c r="G19">
-        <v>0.002492548829914687</v>
+        <v>0.0007498455311867429</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3398352470522639</v>
+        <v>0.5777775294208141</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.843755282645404</v>
+        <v>1.07207009937278</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.300144787842555</v>
+        <v>7.787336995489909</v>
       </c>
       <c r="C20">
-        <v>0.3450549938269205</v>
+        <v>1.244266612912838</v>
       </c>
       <c r="D20">
-        <v>0.09867511813865804</v>
+        <v>0.06670750994335606</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.5013062660515</v>
+        <v>3.885304533602977</v>
       </c>
       <c r="G20">
-        <v>0.002490293813602406</v>
+        <v>0.0007456084487085221</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.344771930566921</v>
+        <v>0.6018458354691631</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.840556984128014</v>
+        <v>1.067738629795656</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.544534075465663</v>
+        <v>8.915977746853855</v>
       </c>
       <c r="C21">
-        <v>0.3886923693060567</v>
+        <v>1.425181364182151</v>
       </c>
       <c r="D21">
-        <v>0.09873659511757182</v>
+        <v>0.07038445602221799</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.598496544914468</v>
+        <v>4.399306856338342</v>
       </c>
       <c r="G21">
-        <v>0.002482949894931696</v>
+        <v>0.0007313835459694221</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3616097665067173</v>
+        <v>0.685196510297132</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.830608492830208</v>
+        <v>1.058160396431163</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.705995095545177</v>
+        <v>9.680708315115339</v>
       </c>
       <c r="C22">
-        <v>0.417246851002119</v>
+        <v>1.547575302747248</v>
       </c>
       <c r="D22">
-        <v>0.09882157984226581</v>
+        <v>0.07319837168519427</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.663468777072438</v>
+        <v>4.75284229001636</v>
       </c>
       <c r="G22">
-        <v>0.002478322654397915</v>
+        <v>0.0007220605205004233</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3728036691469185</v>
+        <v>0.7418453956786806</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.824706225832998</v>
+        <v>1.056129380064817</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.619659506241646</v>
+        <v>9.269781487859746</v>
       </c>
       <c r="C23">
-        <v>0.4020032585596596</v>
+        <v>1.481821640397413</v>
       </c>
       <c r="D23">
-        <v>0.09877209035019519</v>
+        <v>0.07165477751622262</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.628657645231954</v>
+        <v>4.562360547658301</v>
       </c>
       <c r="G23">
-        <v>0.002480776582750729</v>
+        <v>0.0007270412186841657</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3668118032429106</v>
+        <v>0.7113892279439966</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.827801161604043</v>
+        <v>1.056789734558777</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.296179337947308</v>
+        <v>7.769286061089247</v>
       </c>
       <c r="C24">
-        <v>0.3443422798131337</v>
+        <v>1.241369590759348</v>
       </c>
       <c r="D24">
-        <v>0.09867486270515258</v>
+        <v>0.06665349062021875</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.499741978822613</v>
+        <v>3.877162880868156</v>
       </c>
       <c r="G24">
-        <v>0.002490416770879537</v>
+        <v>0.0007458410070711909</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3444998916505995</v>
+        <v>0.6005155231191992</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.84072963330587</v>
+        <v>1.067958984591556</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.954544905182161</v>
+        <v>6.241414873474469</v>
       </c>
       <c r="C25">
-        <v>0.2822623994508149</v>
+        <v>0.9955779814035566</v>
       </c>
       <c r="D25">
-        <v>0.09875919428661462</v>
+        <v>0.06266629237578769</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.366792957001877</v>
+        <v>3.197850632259644</v>
       </c>
       <c r="G25">
-        <v>0.002501561761054494</v>
+        <v>0.0007662175234084522</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3212322073820815</v>
+        <v>0.488286235741441</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.857214997081826</v>
+        <v>1.094992003086034</v>
       </c>
       <c r="O25">
         <v>0</v>
